--- a/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="175">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,127 +61,127 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>share</t>
@@ -904,10 +904,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.9482758620689655</v>
@@ -1186,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -1236,7 +1236,7 @@
         <v>391</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -1286,7 +1286,7 @@
         <v>133</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.905982905982906</v>
@@ -1315,28 +1315,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08227848101265822</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>0.8888888888888888</v>
@@ -1365,28 +1365,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.05555555555555555</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>238</v>
+        <v>1746</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.8333333333333334</v>
@@ -1415,28 +1415,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01522842639593909</v>
+        <v>0.008497489378138278</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="E12">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F12">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1746</v>
+        <v>2567</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0.825</v>
@@ -1465,28 +1465,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008497489378138278</v>
+        <v>0.008193801211257571</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>540</v>
+        <v>417</v>
       </c>
       <c r="E13">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F13">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2567</v>
+        <v>2784</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0.8188976377952756</v>
@@ -1511,32 +1511,8 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.008193801211257571</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>417</v>
-      </c>
-      <c r="E14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2784</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14">
         <v>0.8</v>
@@ -1562,7 +1538,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>0.7872340425531915</v>
@@ -1588,7 +1564,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>0.7692307692307693</v>
@@ -1614,7 +1590,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
         <v>0.76</v>
@@ -1640,7 +1616,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1666,7 +1642,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
         <v>0.7474747474747475</v>
@@ -1692,7 +1668,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.7352941176470589</v>
@@ -1718,7 +1694,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>0.7301587301587301</v>
@@ -1744,7 +1720,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>0.7272727272727273</v>
@@ -1770,7 +1746,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>0.7254901960784313</v>
@@ -1796,7 +1772,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0.7197452229299363</v>
@@ -1822,7 +1798,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>0.7192982456140351</v>
@@ -1848,42 +1824,42 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6869565217391305</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L26">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.676056338028169</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L27">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1895,12 +1871,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>0.6304347826086957</v>
@@ -1926,7 +1902,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>0.6263736263736264</v>
@@ -1952,7 +1928,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>0.625</v>
@@ -1978,7 +1954,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>0.5925925925925926</v>
@@ -2004,7 +1980,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>0.5652173913043478</v>
@@ -2030,7 +2006,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>0.5625</v>
@@ -2056,7 +2032,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>0.5625</v>
@@ -2082,7 +2058,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
         <v>0.5600000000000001</v>
@@ -2108,28 +2084,28 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5565749235474006</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L36">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="M36">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2137,25 +2113,25 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5517241379310345</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2163,25 +2139,25 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5511811023622047</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L38">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M38">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -4370,7 +4346,7 @@
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K123">
         <v>0.1748582230623819</v>
@@ -4500,7 +4476,7 @@
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K128">
         <v>0.1679092382495948</v>
@@ -4994,7 +4970,7 @@
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K147">
         <v>0.1239773442416614</v>
